--- a/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/过滤学生基础数据导入.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/TestFiles/Import/过滤学生基础数据导入.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Person\HueiFeng\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlchu\source\personal\Magicodes.IE\src\Magicodes.ExporterAndImporter.Tests\TestFiles\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA257D3-D5A7-4E7C-8A16-D6257EBB3CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFBFB4-A73E-4F04-8DD9-951DEAA3F9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>36082520010220XXXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>36242920011203XXXX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,6 +397,9 @@
   <si>
     <t>5222232001040112XXXX</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36082520010220XXXXXX</t>
   </si>
 </sst>
 </file>
@@ -453,7 +452,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -556,7 +555,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="1" xr:uid="{77E423DE-C8E2-42BE-89EB-343C29723914}"/>
     <cellStyle name="常规 5 2" xfId="2" xr:uid="{D5CB8DAF-AB97-4588-9907-77F849837A54}"/>
   </cellStyles>
@@ -574,7 +573,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,28 +872,28 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.26171875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.15625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -947,18 +946,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="15.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
@@ -983,18 +982,18 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="15.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
@@ -1019,12 +1018,12 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="15.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>24</v>
@@ -1055,7 +1054,7 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="15.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>29</v>
@@ -1091,7 +1090,7 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="15.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1127,7 +1126,7 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="15.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1163,7 +1162,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="15.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1199,7 +1198,7 @@
       </c>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="15.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1235,7 +1234,7 @@
       </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="15.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1271,7 +1270,7 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="15.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1307,7 +1306,7 @@
       </c>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="15.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1343,7 +1342,7 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="15.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
@@ -1379,7 +1378,7 @@
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="15.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>36</v>
@@ -1415,7 +1414,7 @@
       </c>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="15.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>36</v>
@@ -1451,7 +1450,7 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="15.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>36</v>
@@ -1487,7 +1486,7 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="15.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>36</v>
